--- a/data/PREO_dataframe2023.xlsx
+++ b/data/PREO_dataframe2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Documents/website/michaelczeller.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Documents/webpages/michaelczeller.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D9B925-2FA6-4C40-884A-A935EE6B12D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F5347-5F63-0841-98BB-0F01FEDA909B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5600" yWindow="500" windowWidth="23200" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="413">
   <si>
     <t>NAME</t>
   </si>
@@ -1266,6 +1266,15 @@
   </si>
   <si>
     <t>pink</t>
+  </si>
+  <si>
+    <t>Hammerskins Deutschland</t>
+  </si>
+  <si>
+    <t>Eisenach</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1282,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1473,9 +1482,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
@@ -1920,11 +1929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K194"/>
+  <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7091,86 +7100,89 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="B163" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="C163">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D163">
-        <v>23.709197700000001</v>
+        <v>10.3076662638433</v>
       </c>
       <c r="E163">
-        <v>37.9731296</v>
+        <v>50.976688336303297</v>
       </c>
       <c r="F163" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="G163" t="s">
-        <v>230</v>
+        <v>411</v>
+      </c>
+      <c r="H163" t="s">
+        <v>412</v>
       </c>
       <c r="I163" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J163" t="s">
         <v>19</v>
       </c>
       <c r="K163" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="C164">
-        <v>1994</v>
+        <v>2020</v>
       </c>
       <c r="D164">
-        <v>19.072424216992601</v>
+        <v>23.709197700000001</v>
       </c>
       <c r="E164">
-        <v>47.421754645765198</v>
+        <v>37.9731296</v>
       </c>
       <c r="F164" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G164" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I164" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J164" t="s">
         <v>19</v>
       </c>
       <c r="K164" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="B165" t="s">
         <v>32</v>
       </c>
       <c r="C165">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="D165">
-        <v>19.030121900000001</v>
+        <v>19.072424216992601</v>
       </c>
       <c r="E165">
-        <v>47.478940399999999</v>
+        <v>47.421754645765198</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="G165" t="s">
         <v>233</v>
@@ -7187,19 +7199,19 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B166" t="s">
         <v>32</v>
       </c>
       <c r="C166">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D166">
-        <v>17.5873086</v>
+        <v>19.030121900000001</v>
       </c>
       <c r="E166">
-        <v>47.128729999999997</v>
+        <v>47.478940399999999</v>
       </c>
       <c r="F166" t="s">
         <v>33</v>
@@ -7219,19 +7231,19 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B167" t="s">
         <v>32</v>
       </c>
       <c r="C167">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D167">
-        <v>18.564184900000001</v>
+        <v>17.5873086</v>
       </c>
       <c r="E167">
-        <v>46.580373000000002</v>
+        <v>47.128729999999997</v>
       </c>
       <c r="F167" t="s">
         <v>33</v>
@@ -7249,24 +7261,27 @@
         <v>396</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C168">
-        <v>1972</v>
-      </c>
-      <c r="D168" s="3">
-        <v>10.046129499999999</v>
-      </c>
-      <c r="E168" s="4">
-        <v>45.048667999999999</v>
+        <v>2014</v>
+      </c>
+      <c r="D168">
+        <v>18.564184900000001</v>
+      </c>
+      <c r="E168">
+        <v>46.580373000000002</v>
       </c>
       <c r="F168" t="s">
-        <v>295</v>
+        <v>33</v>
+      </c>
+      <c r="G168" t="s">
+        <v>233</v>
       </c>
       <c r="I168" t="s">
         <v>11</v>
@@ -7275,27 +7290,27 @@
         <v>19</v>
       </c>
       <c r="K168" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B169" t="s">
         <v>18</v>
       </c>
       <c r="C169">
-        <v>1976</v>
-      </c>
-      <c r="D169">
-        <v>12.695344</v>
-      </c>
-      <c r="E169">
-        <v>42.531688899999999</v>
+        <v>1972</v>
+      </c>
+      <c r="D169" s="3">
+        <v>10.046129499999999</v>
+      </c>
+      <c r="E169" s="4">
+        <v>45.048667999999999</v>
       </c>
       <c r="F169" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I169" t="s">
         <v>11</v>
@@ -7309,31 +7324,28 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>361</v>
+        <v>235</v>
       </c>
       <c r="B170" t="s">
         <v>18</v>
       </c>
       <c r="C170">
-        <v>1993</v>
+        <v>1976</v>
       </c>
       <c r="D170">
-        <v>9.1802654284238994</v>
+        <v>12.695344</v>
       </c>
       <c r="E170">
-        <v>45.446824253366103</v>
+        <v>42.531688899999999</v>
       </c>
       <c r="F170" t="s">
-        <v>297</v>
-      </c>
-      <c r="G170" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="I170" t="s">
         <v>11</v>
       </c>
       <c r="J170" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K170" t="s">
         <v>397</v>
@@ -7341,7 +7353,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B171" t="s">
         <v>18</v>
@@ -7350,16 +7362,16 @@
         <v>1993</v>
       </c>
       <c r="D171">
-        <v>12.4563886290368</v>
+        <v>9.1802654284238994</v>
       </c>
       <c r="E171">
-        <v>41.919731950229497</v>
+        <v>45.446824253366103</v>
       </c>
       <c r="F171" t="s">
         <v>297</v>
       </c>
       <c r="G171" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I171" t="s">
         <v>11</v>
@@ -7373,7 +7385,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B172" t="s">
         <v>18</v>
@@ -7382,18 +7394,15 @@
         <v>1993</v>
       </c>
       <c r="D172">
-        <v>12.673163187360799</v>
+        <v>12.4563886290368</v>
       </c>
       <c r="E172">
-        <v>41.786622362213897</v>
+        <v>41.919731950229497</v>
       </c>
       <c r="F172" t="s">
         <v>297</v>
       </c>
       <c r="G172" t="s">
-        <v>390</v>
-      </c>
-      <c r="H172" t="s">
         <v>363</v>
       </c>
       <c r="I172" t="s">
@@ -7408,28 +7417,34 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>364</v>
       </c>
       <c r="B173" t="s">
         <v>18</v>
       </c>
       <c r="C173">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="D173">
-        <v>15.1360332</v>
+        <v>12.673163187360799</v>
       </c>
       <c r="E173">
-        <v>41.341048800000003</v>
+        <v>41.786622362213897</v>
       </c>
       <c r="F173" t="s">
         <v>297</v>
       </c>
+      <c r="G173" t="s">
+        <v>390</v>
+      </c>
+      <c r="H173" t="s">
+        <v>363</v>
+      </c>
       <c r="I173" t="s">
         <v>11</v>
       </c>
       <c r="J173" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K173" t="s">
         <v>397</v>
@@ -7437,25 +7452,22 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C174">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D174">
-        <v>24.114328799999999</v>
+        <v>15.1360332</v>
       </c>
       <c r="E174">
-        <v>56.930445400000004</v>
+        <v>41.341048800000003</v>
       </c>
       <c r="F174" t="s">
-        <v>91</v>
-      </c>
-      <c r="G174" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="I174" t="s">
         <v>11</v>
@@ -7464,62 +7476,59 @@
         <v>19</v>
       </c>
       <c r="K174" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="B175" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="C175">
-        <v>1990</v>
+        <v>2014</v>
       </c>
       <c r="D175">
-        <v>5.8951687718914503</v>
+        <v>24.114328799999999</v>
       </c>
       <c r="E175">
-        <v>51.990827134865597</v>
+        <v>56.930445400000004</v>
       </c>
       <c r="F175" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="G175" t="s">
-        <v>169</v>
-      </c>
-      <c r="H175" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I175" t="s">
         <v>11</v>
       </c>
       <c r="J175" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K175" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B176" t="s">
         <v>166</v>
       </c>
       <c r="C176">
-        <v>1979</v>
+        <v>1990</v>
       </c>
       <c r="D176">
-        <v>5.9279187394753903</v>
+        <v>5.8951687718914503</v>
       </c>
       <c r="E176">
-        <v>51.980016304270897</v>
+        <v>51.990827134865597</v>
       </c>
       <c r="F176" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G176" t="s">
         <v>169</v>
@@ -7539,31 +7548,34 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B177" t="s">
         <v>166</v>
       </c>
       <c r="C177">
-        <v>1998</v>
+        <v>1979</v>
       </c>
       <c r="D177">
-        <v>4.9324181560436902</v>
+        <v>5.9279187394753903</v>
       </c>
       <c r="E177">
-        <v>52.354665601650197</v>
+        <v>51.980016304270897</v>
       </c>
       <c r="F177" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="G177" t="s">
-        <v>389</v>
+        <v>169</v>
+      </c>
+      <c r="H177" t="s">
+        <v>24</v>
       </c>
       <c r="I177" t="s">
         <v>11</v>
       </c>
       <c r="J177" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K177" t="s">
         <v>398</v>
@@ -7571,28 +7583,25 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B178" t="s">
         <v>166</v>
       </c>
       <c r="C178">
-        <v>1955</v>
+        <v>1998</v>
       </c>
       <c r="D178">
-        <v>5.9006349474240496</v>
+        <v>4.9324181560436902</v>
       </c>
       <c r="E178">
-        <v>51.953809914180702</v>
+        <v>52.354665601650197</v>
       </c>
       <c r="F178" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G178" t="s">
-        <v>169</v>
-      </c>
-      <c r="H178" t="s">
-        <v>24</v>
+        <v>389</v>
       </c>
       <c r="I178" t="s">
         <v>11</v>
@@ -7606,63 +7615,63 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="B179" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="C179">
-        <v>2009</v>
+        <v>1955</v>
       </c>
       <c r="D179">
-        <v>17.4516657</v>
+        <v>5.9006349474240496</v>
       </c>
       <c r="E179">
-        <v>50.847399699999997</v>
+        <v>51.953809914180702</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="H179" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I179" t="s">
         <v>11</v>
       </c>
       <c r="J179" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K179" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="B180" t="s">
         <v>46</v>
       </c>
       <c r="C180">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="D180">
-        <v>19.764933599999999</v>
+        <v>17.4516657</v>
       </c>
       <c r="E180">
-        <v>52.264887700000003</v>
+        <v>50.847399699999997</v>
       </c>
       <c r="F180" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="G180" t="s">
-        <v>299</v>
+        <v>48</v>
       </c>
       <c r="H180" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="I180" t="s">
         <v>11</v>
@@ -7676,60 +7685,60 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>298</v>
+      </c>
+      <c r="B181" t="s">
+        <v>46</v>
+      </c>
+      <c r="C181">
+        <v>2019</v>
+      </c>
+      <c r="D181">
+        <v>19.764933599999999</v>
+      </c>
+      <c r="E181">
+        <v>52.264887700000003</v>
+      </c>
+      <c r="F181" t="s">
+        <v>120</v>
+      </c>
+      <c r="G181" t="s">
+        <v>299</v>
+      </c>
+      <c r="H181" t="s">
+        <v>121</v>
+      </c>
+      <c r="I181" t="s">
+        <v>11</v>
+      </c>
+      <c r="J181" t="s">
+        <v>16</v>
+      </c>
+      <c r="K181" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>379</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>102</v>
       </c>
-      <c r="C181">
+      <c r="C182">
         <v>2015</v>
       </c>
-      <c r="D181">
+      <c r="D182">
         <v>26.104635999999999</v>
       </c>
-      <c r="E181">
+      <c r="E182">
         <v>44.405347399999997</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F182" t="s">
         <v>300</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G182" t="s">
         <v>103</v>
-      </c>
-      <c r="I181" t="s">
-        <v>25</v>
-      </c>
-      <c r="J181" t="s">
-        <v>19</v>
-      </c>
-      <c r="K181" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>301</v>
-      </c>
-      <c r="B182" t="s">
-        <v>153</v>
-      </c>
-      <c r="C182">
-        <v>2006</v>
-      </c>
-      <c r="D182" s="3">
-        <v>19.546454099999998</v>
-      </c>
-      <c r="E182" s="3">
-        <v>48.874515600000002</v>
-      </c>
-      <c r="F182" t="s">
-        <v>154</v>
-      </c>
-      <c r="G182" t="s">
-        <v>302</v>
-      </c>
-      <c r="H182" t="s">
-        <v>155</v>
       </c>
       <c r="I182" t="s">
         <v>25</v>
@@ -7738,73 +7747,76 @@
         <v>19</v>
       </c>
       <c r="K182" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="B183" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C183">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="D183" s="3">
-        <v>15.6426756</v>
+        <v>19.546454099999998</v>
       </c>
       <c r="E183" s="3">
-        <v>46.5447603</v>
+        <v>48.874515600000002</v>
       </c>
       <c r="F183" t="s">
-        <v>124</v>
+        <v>154</v>
+      </c>
+      <c r="G183" t="s">
+        <v>302</v>
+      </c>
+      <c r="H183" t="s">
+        <v>155</v>
       </c>
       <c r="I183" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J183" t="s">
         <v>19</v>
       </c>
       <c r="K183" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B184" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="C184">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D184" s="3">
-        <v>-3.6292054999999999</v>
-      </c>
-      <c r="E184" s="4">
-        <v>40.36412</v>
+        <v>15.6426756</v>
+      </c>
+      <c r="E184" s="3">
+        <v>46.5447603</v>
       </c>
       <c r="F184" t="s">
-        <v>55</v>
-      </c>
-      <c r="G184" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="I184" t="s">
         <v>11</v>
       </c>
       <c r="J184" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K184" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="B185" t="s">
         <v>54</v>
@@ -7813,13 +7825,16 @@
         <v>2011</v>
       </c>
       <c r="D185" s="3">
-        <v>-3.8967223999999998</v>
+        <v>-3.6292054999999999</v>
       </c>
       <c r="E185" s="4">
-        <v>38.592799999999997</v>
+        <v>40.36412</v>
       </c>
       <c r="F185" t="s">
-        <v>237</v>
+        <v>55</v>
+      </c>
+      <c r="G185" t="s">
+        <v>56</v>
       </c>
       <c r="I185" t="s">
         <v>11</v>
@@ -7833,66 +7848,60 @@
     </row>
     <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>236</v>
+      </c>
+      <c r="B186" t="s">
+        <v>54</v>
+      </c>
+      <c r="C186">
+        <v>2011</v>
+      </c>
+      <c r="D186" s="3">
+        <v>-3.8967223999999998</v>
+      </c>
+      <c r="E186" s="4">
+        <v>38.592799999999997</v>
+      </c>
+      <c r="F186" t="s">
+        <v>237</v>
+      </c>
+      <c r="I186" t="s">
+        <v>11</v>
+      </c>
+      <c r="J186" t="s">
+        <v>12</v>
+      </c>
+      <c r="K186" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>104</v>
-      </c>
-      <c r="B186" t="s">
-        <v>105</v>
-      </c>
-      <c r="C186">
-        <v>2016</v>
-      </c>
-      <c r="D186" s="3">
-        <v>-2.5970593000000002</v>
-      </c>
-      <c r="E186" s="4">
-        <v>53.389416400000002</v>
-      </c>
-      <c r="F186" t="s">
-        <v>106</v>
-      </c>
-      <c r="G186" t="s">
-        <v>107</v>
-      </c>
-      <c r="I186" t="s">
-        <v>11</v>
-      </c>
-      <c r="J186" t="s">
-        <v>19</v>
-      </c>
-      <c r="K186" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>108</v>
       </c>
       <c r="B187" t="s">
         <v>105</v>
       </c>
       <c r="C187">
-        <v>2017</v>
-      </c>
-      <c r="D187">
-        <v>-3.9544966000000001</v>
-      </c>
-      <c r="E187" s="2">
-        <v>51.632681599999998</v>
+        <v>2016</v>
+      </c>
+      <c r="D187" s="3">
+        <v>-2.5970593000000002</v>
+      </c>
+      <c r="E187" s="4">
+        <v>53.389416400000002</v>
       </c>
       <c r="F187" t="s">
         <v>106</v>
       </c>
       <c r="G187" t="s">
-        <v>109</v>
-      </c>
-      <c r="H187" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I187" t="s">
         <v>11</v>
       </c>
       <c r="J187" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K187" t="s">
         <v>395</v>
@@ -7900,7 +7909,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B188" t="s">
         <v>105</v>
@@ -7909,19 +7918,19 @@
         <v>2017</v>
       </c>
       <c r="D188">
-        <v>-3.7913918</v>
+        <v>-3.9544966000000001</v>
       </c>
       <c r="E188" s="2">
-        <v>56.1152248</v>
+        <v>51.632681599999998</v>
       </c>
       <c r="F188" t="s">
         <v>106</v>
       </c>
       <c r="G188" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H188" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I188" t="s">
         <v>11</v>
@@ -7935,31 +7944,34 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B189" t="s">
         <v>105</v>
       </c>
       <c r="C189">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D189">
-        <v>-5.0507812999999997</v>
+        <v>-3.7913918</v>
       </c>
       <c r="E189" s="2">
-        <v>50.263485099999997</v>
+        <v>56.1152248</v>
       </c>
       <c r="F189" t="s">
         <v>106</v>
       </c>
       <c r="G189" t="s">
-        <v>139</v>
+        <v>112</v>
+      </c>
+      <c r="H189" t="s">
+        <v>113</v>
       </c>
       <c r="I189" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="J189" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K189" t="s">
         <v>395</v>
@@ -7967,7 +7979,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B190" t="s">
         <v>105</v>
@@ -7976,14 +7988,17 @@
         <v>2020</v>
       </c>
       <c r="D190">
-        <v>-4.0843368</v>
+        <v>-5.0507812999999997</v>
       </c>
       <c r="E190" s="2">
-        <v>52.411537000000003</v>
+        <v>50.263485099999997</v>
       </c>
       <c r="F190" t="s">
         <v>106</v>
       </c>
+      <c r="G190" t="s">
+        <v>139</v>
+      </c>
       <c r="I190" t="s">
         <v>140</v>
       </c>
@@ -7996,7 +8011,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B191" t="s">
         <v>105</v>
@@ -8005,25 +8020,19 @@
         <v>2020</v>
       </c>
       <c r="D191">
-        <v>-2.9718795</v>
+        <v>-4.0843368</v>
       </c>
       <c r="E191" s="2">
-        <v>56.461312200000002</v>
+        <v>52.411537000000003</v>
       </c>
       <c r="F191" t="s">
         <v>106</v>
       </c>
-      <c r="G191" t="s">
-        <v>143</v>
-      </c>
-      <c r="H191" t="s">
-        <v>144</v>
-      </c>
       <c r="I191" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="J191" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K191" t="s">
         <v>395</v>
@@ -8031,31 +8040,34 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B192" t="s">
         <v>105</v>
       </c>
       <c r="C192">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D192">
-        <v>-0.1180172</v>
+        <v>-2.9718795</v>
       </c>
       <c r="E192" s="2">
-        <v>51.508801499999997</v>
+        <v>56.461312200000002</v>
       </c>
       <c r="F192" t="s">
         <v>106</v>
       </c>
+      <c r="G192" t="s">
+        <v>143</v>
+      </c>
       <c r="H192" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I192" t="s">
         <v>11</v>
       </c>
       <c r="J192" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K192" t="s">
         <v>395</v>
@@ -8063,7 +8075,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B193" t="s">
         <v>105</v>
@@ -8072,10 +8084,10 @@
         <v>2021</v>
       </c>
       <c r="D193">
-        <v>-0.20545269999999999</v>
+        <v>-0.1180172</v>
       </c>
       <c r="E193" s="2">
-        <v>51.483711800000002</v>
+        <v>51.508801499999997</v>
       </c>
       <c r="F193" t="s">
         <v>106</v>
@@ -8095,7 +8107,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B194" t="s">
         <v>105</v>
@@ -8104,10 +8116,10 @@
         <v>2021</v>
       </c>
       <c r="D194">
-        <v>3.2126599999999998E-2</v>
+        <v>-0.20545269999999999</v>
       </c>
       <c r="E194" s="2">
-        <v>51.540120000000002</v>
+        <v>51.483711800000002</v>
       </c>
       <c r="F194" t="s">
         <v>106</v>
@@ -8122,6 +8134,38 @@
         <v>12</v>
       </c>
       <c r="K194" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>152</v>
+      </c>
+      <c r="B195" t="s">
+        <v>105</v>
+      </c>
+      <c r="C195">
+        <v>2021</v>
+      </c>
+      <c r="D195">
+        <v>3.2126599999999998E-2</v>
+      </c>
+      <c r="E195" s="2">
+        <v>51.540120000000002</v>
+      </c>
+      <c r="F195" t="s">
+        <v>106</v>
+      </c>
+      <c r="H195" t="s">
+        <v>150</v>
+      </c>
+      <c r="I195" t="s">
+        <v>11</v>
+      </c>
+      <c r="J195" t="s">
+        <v>12</v>
+      </c>
+      <c r="K195" t="s">
         <v>395</v>
       </c>
     </row>
